--- a/ExcelReports/ExcelTemplates/AllPacientsVisitHistory.xlsx
+++ b/ExcelReports/ExcelTemplates/AllPacientsVisitHistory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Дата посещения</t>
   </si>
@@ -32,25 +32,22 @@
     <t>Посещения пациентов</t>
   </si>
   <si>
-    <t>ФИО Доктора</t>
-  </si>
-  <si>
-    <t>Должность доктора</t>
-  </si>
-  <si>
-    <t>ФИО пациента</t>
-  </si>
-  <si>
-    <t>№ телефона пациента</t>
-  </si>
-  <si>
-    <t>№ телефона родителей</t>
-  </si>
-  <si>
-    <t>ФИО родителей пациента</t>
-  </si>
-  <si>
-    <t>Тип пациента</t>
+    <t>ФИО специалиста</t>
+  </si>
+  <si>
+    <t>Должность специалиста</t>
+  </si>
+  <si>
+    <t>ФИО инвалида или лица с ОВЗ</t>
+  </si>
+  <si>
+    <t>Инвалид или лицо с ОВЗ</t>
+  </si>
+  <si>
+    <t>№ телефона инвалида или лица с ОВЗ</t>
+  </si>
+  <si>
+    <t>ФИО родителей инвалида или лица с ОВЗ</t>
   </si>
 </sst>
 </file>
@@ -58,7 +55,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -126,15 +123,15 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -418,12 +415,12 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" customWidth="1"/>
@@ -437,42 +434,42 @@
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
